--- a/data_management/management/4. income imputation/output/VEN_income_imputation_JL.xlsx
+++ b/data_management/management/4. income imputation/output/VEN_income_imputation_JL.xlsx
@@ -13,9 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>Labor income</t>
+  </si>
+  <si>
+    <t>Pensions</t>
   </si>
 </sst>
 </file>
@@ -64,10 +70,10 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -76,18 +82,18 @@
     </row>
     <row r="4">
       <c r="B4">
-        <v>30.415922429191124</v>
+        <v>33.212341197822141</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>54.651162790697668</v>
       </c>
     </row>
     <row r="5">
       <c r="B5">
-        <v>69.584077570808873</v>
+        <v>66.787658802177859</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>45.348837209302324</v>
       </c>
     </row>
     <row r="6">
@@ -96,15 +102,15 @@
     </row>
     <row r="7">
       <c r="B7">
-        <v>0.40826741515692777</v>
+        <v>0.36297640653357532</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.58139534883720934</v>
       </c>
     </row>
     <row r="8">
       <c r="B8">
-        <v>12.273539168155141</v>
+        <v>12.341197822141561</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -112,7 +118,7 @@
     </row>
     <row r="9">
       <c r="B9">
-        <v>22.046440418474099</v>
+        <v>22.005444646098006</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -120,34 +126,34 @@
     </row>
     <row r="10">
       <c r="B10">
-        <v>22.93952538912988</v>
+        <v>23.230490018148821</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1.1627906976744187</v>
       </c>
     </row>
     <row r="11">
       <c r="B11">
-        <v>21.459556009186016</v>
+        <v>20.644283121597095</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>5.2325581395348841</v>
       </c>
     </row>
     <row r="12">
       <c r="B12">
-        <v>15.10589436080633</v>
+        <v>14.791288566243194</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>38.953488372093027</v>
       </c>
     </row>
     <row r="13">
       <c r="B13">
-        <v>5.7667772390916046</v>
+        <v>6.6243194192377493</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>54.069767441860463</v>
       </c>
     </row>
     <row r="14">
@@ -156,50 +162,50 @@
     </row>
     <row r="15">
       <c r="B15">
-        <v>22.403674406736414</v>
+        <v>23.95644283121597</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>38.372093023255815</v>
       </c>
     </row>
     <row r="16">
       <c r="B16">
-        <v>28.884919622352641</v>
+        <v>32.667876588021777</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>15.697674418604651</v>
       </c>
     </row>
     <row r="17">
       <c r="B17">
-        <v>33.937228884919627</v>
+        <v>29.355716878402905</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9.8837209302325579</v>
       </c>
     </row>
     <row r="18">
       <c r="B18">
-        <v>11.941821893340137</v>
+        <v>10.980036297640654</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>12.790697674418606</v>
       </c>
     </row>
     <row r="19">
       <c r="B19">
-        <v>2.7302883388619548</v>
+        <v>2.9038112522686026</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>22.674418604651162</v>
       </c>
     </row>
     <row r="20">
       <c r="B20">
-        <v>0.10206685378923194</v>
+        <v>0.13611615245009073</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.58139534883720934</v>
       </c>
     </row>
     <row r="21">
@@ -208,7 +214,7 @@
     </row>
     <row r="22">
       <c r="B22">
-        <v>0.25516713447307987</v>
+        <v>0.31760435571687839</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -216,47 +222,47 @@
     </row>
     <row r="23">
       <c r="B23">
-        <v>0.12758356723653994</v>
+        <v>0.13611615245009073</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.58139534883720934</v>
       </c>
     </row>
     <row r="24">
       <c r="B24">
-        <v>26.333248277621841</v>
+        <v>26.134301270417421</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>48.837209302325576</v>
       </c>
     </row>
     <row r="25">
       <c r="B25">
-        <v>49.961724929829039</v>
+        <v>46.914700544464608</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>23.837209302325583</v>
       </c>
     </row>
     <row r="26">
       <c r="B26">
-        <v>6.3791783618269964</v>
+        <v>6.1252268602540836</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>8.1395348837209305</v>
       </c>
     </row>
     <row r="27">
       <c r="B27">
-        <v>12.630773156417455</v>
+        <v>14.927404718693285</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>8.720930232558139</v>
       </c>
     </row>
     <row r="28">
       <c r="B28">
-        <v>0.33171727481500379</v>
+        <v>0.63520871143375679</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -264,10 +270,10 @@
     </row>
     <row r="29">
       <c r="B29">
-        <v>3.9806072977800455</v>
+        <v>4.809437386569873</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>9.8837209302325579</v>
       </c>
     </row>
     <row r="30">
@@ -276,39 +282,39 @@
     </row>
     <row r="31">
       <c r="B31">
-        <v>2.1178872161265629</v>
+        <v>9.8457350272232311</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>8.720930232558139</v>
       </c>
     </row>
     <row r="32">
       <c r="B32">
-        <v>1.837203368206175</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2.9069767441860463</v>
       </c>
     </row>
     <row r="33">
       <c r="B33">
-        <v>5.4860933911712175</v>
+        <v>10.617059891107077</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3.4883720930232558</v>
       </c>
     </row>
     <row r="34">
       <c r="B34">
-        <v>87.01199285532023</v>
+        <v>65.69872958257713</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>12.209302325581394</v>
       </c>
     </row>
     <row r="35">
       <c r="B35">
-        <v>0.1531002806838479</v>
+        <v>0.45372050816696918</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -316,7 +322,7 @@
     </row>
     <row r="36">
       <c r="B36">
-        <v>1.964786935442715</v>
+        <v>3.7658802177858441</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -324,18 +330,18 @@
     </row>
     <row r="37">
       <c r="B37">
-        <v>1.3523858127073234</v>
+        <v>2.4047186932849365</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1.7441860465116279</v>
       </c>
     </row>
     <row r="38">
       <c r="B38">
-        <v>0.07655014034192395</v>
+        <v>0.31760435571687839</v>
       </c>
       <c r="C38">
-        <v>92</v>
+        <v>70.930232558139537</v>
       </c>
     </row>
     <row r="39">
@@ -344,90 +350,90 @@
     </row>
     <row r="40">
       <c r="B40">
-        <v>17.249298290380199</v>
+        <v>17.105263157894736</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5.8139534883720927</v>
       </c>
     </row>
     <row r="41">
       <c r="B41">
-        <v>0.89308497065577963</v>
+        <v>0.63520871143375679</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1.1627906976744187</v>
       </c>
     </row>
     <row r="42">
       <c r="B42">
-        <v>1.5820362337330953</v>
+        <v>1.9509981851179674</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>0.58139534883720934</v>
       </c>
     </row>
     <row r="43">
       <c r="B43">
-        <v>1.2248022454707832</v>
+        <v>1.4519056261343013</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.58139534883720934</v>
       </c>
     </row>
     <row r="44">
       <c r="B44">
-        <v>6.7108956366420003</v>
+        <v>5.8076225045372052</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2.3255813953488373</v>
       </c>
     </row>
     <row r="45">
       <c r="B45">
-        <v>22.760908394998726</v>
+        <v>20.417422867513611</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2.3255813953488373</v>
       </c>
     </row>
     <row r="46">
       <c r="B46">
-        <v>11.865271752998213</v>
+        <v>11.479128856624319</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2.3255813953488373</v>
       </c>
     </row>
     <row r="47">
       <c r="B47">
-        <v>2.5516713447307984</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.58139534883720934</v>
       </c>
     </row>
     <row r="48">
       <c r="B48">
-        <v>4.2612911457004339</v>
+        <v>9.3466424682395655</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>6.9767441860465116</v>
       </c>
     </row>
     <row r="49">
       <c r="B49">
-        <v>30.824189844348048</v>
+        <v>28.039927404718696</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>6.395348837209303</v>
       </c>
     </row>
     <row r="50">
       <c r="B50">
-        <v>0.07655014034192395</v>
+        <v>0.31760435571687839</v>
       </c>
       <c r="C50">
-        <v>92</v>
+        <v>70.930232558139537</v>
       </c>
     </row>
     <row r="51">
@@ -436,18 +442,18 @@
     </row>
     <row r="52">
       <c r="B52">
-        <v>20.030620056136769</v>
+        <v>20.281306715063522</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>10.465116279069768</v>
       </c>
     </row>
     <row r="53">
       <c r="B53">
-        <v>79.969379943863231</v>
+        <v>79.718693284936478</v>
       </c>
       <c r="C53">
-        <v>84</v>
+        <v>89.534883720930239</v>
       </c>
     </row>
     <row r="54">

--- a/data_management/management/4. income imputation/output/VEN_income_imputation_JL.xlsx
+++ b/data_management/management/4. income imputation/output/VEN_income_imputation_JL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>2019</t>
   </si>

--- a/data_management/management/4. income imputation/output/VEN_income_imputation_JL.xlsx
+++ b/data_management/management/4. income imputation/output/VEN_income_imputation_JL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>2019</t>
   </si>
